--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/19.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/19.xlsx
@@ -479,13 +479,13 @@
         <v>0.2769831569520166</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627117755208046</v>
+        <v>-1.627680467043911</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01792897894133571</v>
+        <v>0.01817767396250122</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2260581510323626</v>
+        <v>-0.2284538081349823</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.2771962271529788</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.652008506582734</v>
+        <v>-1.653004073676957</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01824220874647455</v>
+        <v>0.01920865648695317</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2017332595317818</v>
+        <v>-0.2040407715636086</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.2876042674352138</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705433076588361</v>
+        <v>-1.705392152091207</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0216749161697109</v>
+        <v>-0.02025672494141897</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2116558760724613</v>
+        <v>-0.2138595028422823</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3095164621270697</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.81647382951964</v>
+        <v>-1.817655130870176</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02782933093399658</v>
+        <v>-0.02473638336064073</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.230635398637105</v>
+        <v>-0.2324486686648434</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3415064029129846</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781431441822122</v>
+        <v>-1.781245707565809</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006723308536475662</v>
+        <v>-0.001429882231541449</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2252805855864401</v>
+        <v>-0.22756763536969</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3804358074759635</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.604059162090551</v>
+        <v>-1.601709151542449</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05762888921878166</v>
+        <v>0.06245483184468956</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2093011434669955</v>
+        <v>-0.2118809608068073</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.4210754954203926</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.34373213961863</v>
+        <v>-1.341567076317281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09254850342483742</v>
+        <v>0.1005980372111691</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1980516288070595</v>
+        <v>-0.2011681866672348</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.457457946049122</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9371913329308462</v>
+        <v>-0.9360611872017524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1886345006846379</v>
+        <v>0.195361858409077</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1727193650688462</v>
+        <v>-0.1770195853082397</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4837565484857788</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4937248246669085</v>
+        <v>-0.4957679014863567</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2035499058780832</v>
+        <v>0.2091156374910025</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1264982935718515</v>
+        <v>-0.131232943088724</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4958396937959784</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01730071703161628</v>
+        <v>-0.02317338237318915</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1768608376573088</v>
+        <v>0.1833143160546416</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06252386040570634</v>
+        <v>-0.06696102030865299</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4930534169209196</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5382115553725503</v>
+        <v>0.5267778804754221</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1403089656224642</v>
+        <v>0.1447335333724404</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03080602937269664</v>
+        <v>0.0261359146397975</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.477237007879041</v>
       </c>
       <c r="E13" t="n">
-        <v>1.107601954369225</v>
+        <v>1.092250545879179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02159172143660241</v>
+        <v>0.02693236831517564</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1330826438365727</v>
+        <v>0.1299062732497879</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4528909216336749</v>
       </c>
       <c r="E14" t="n">
-        <v>1.715156020980956</v>
+        <v>1.694578869008192</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1831503897857059</v>
+        <v>-0.176057859625125</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2528182783939161</v>
+        <v>0.2494357113022409</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4250046133116546</v>
       </c>
       <c r="E15" t="n">
-        <v>2.359499636514848</v>
+        <v>2.334425511912528</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4558743868569908</v>
+        <v>-0.4492760987004983</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3762009152553131</v>
+        <v>0.3723603085993394</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3979204621428492</v>
       </c>
       <c r="E16" t="n">
-        <v>2.98456466585105</v>
+        <v>2.955366611150922</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6924951073430019</v>
+        <v>-0.6863218043492606</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5242515797857344</v>
+        <v>0.5196003532822909</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3761427333555377</v>
       </c>
       <c r="E17" t="n">
-        <v>3.585027776321321</v>
+        <v>3.553497025283426</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9351199237672145</v>
+        <v>-0.929113466800331</v>
       </c>
       <c r="G17" t="n">
-        <v>0.685813624453401</v>
+        <v>0.6808334279536056</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.363082697673856</v>
       </c>
       <c r="E18" t="n">
-        <v>4.154687332587739</v>
+        <v>4.118546279543553</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.158964331045628</v>
+        <v>-1.153191615918258</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8212800061090233</v>
+        <v>0.8152357726832287</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3612222471377924</v>
       </c>
       <c r="E19" t="n">
-        <v>4.62986481707896</v>
+        <v>4.590700073302757</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.372625621618786</v>
+        <v>-1.36942249270694</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9968618390901151</v>
+        <v>0.9907672370524389</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.3718352841186711</v>
       </c>
       <c r="E20" t="n">
-        <v>4.995525199148323</v>
+        <v>4.953256489664914</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.547939084339697</v>
+        <v>-1.545039741118261</v>
       </c>
       <c r="G20" t="n">
-        <v>1.131294090183043</v>
+        <v>1.12614704765639</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3941227705346478</v>
       </c>
       <c r="E21" t="n">
-        <v>5.332067801492745</v>
+        <v>5.290686838793749</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.764089686153192</v>
+        <v>-1.759881546032395</v>
       </c>
       <c r="G21" t="n">
-        <v>1.264100379523667</v>
+        <v>1.259055648239898</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4267369623984083</v>
       </c>
       <c r="E22" t="n">
-        <v>5.627084631379011</v>
+        <v>5.582739790674607</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.919092793142399</v>
+        <v>-1.914368374749815</v>
       </c>
       <c r="G22" t="n">
-        <v>1.371684586464569</v>
+        <v>1.366406900350848</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.467054190191412</v>
       </c>
       <c r="E23" t="n">
-        <v>5.790200232919402</v>
+        <v>5.744328593667335</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.049701751789687</v>
+        <v>-2.043698442861047</v>
       </c>
       <c r="G23" t="n">
-        <v>1.480641338079245</v>
+        <v>1.473866759781167</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.5130008500631935</v>
       </c>
       <c r="E24" t="n">
-        <v>5.949497264071516</v>
+        <v>5.901412553934901</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.143939850601081</v>
+        <v>-2.136759175369707</v>
       </c>
       <c r="G24" t="n">
-        <v>1.521092055477552</v>
+        <v>1.516171671704366</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5621924545632321</v>
       </c>
       <c r="E25" t="n">
-        <v>6.042084216824665</v>
+        <v>5.994610226107115</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.177826908263563</v>
+        <v>-2.170521885521607</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59262178042594</v>
+        <v>1.588321560186547</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6124777049074144</v>
       </c>
       <c r="E26" t="n">
-        <v>6.097505430085662</v>
+        <v>6.052559314076921</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.199725449288659</v>
+        <v>-2.193504138711718</v>
       </c>
       <c r="G26" t="n">
-        <v>1.661310400860381</v>
+        <v>1.655634487908971</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6618849043314244</v>
       </c>
       <c r="E27" t="n">
-        <v>6.085640473949298</v>
+        <v>6.041397944487779</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.193225537327248</v>
+        <v>-2.190236475015898</v>
       </c>
       <c r="G27" t="n">
-        <v>1.633506927101726</v>
+        <v>1.628912365286649</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7089600036340641</v>
       </c>
       <c r="E28" t="n">
-        <v>6.023984570948828</v>
+        <v>5.980241005548761</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.206005785582648</v>
+        <v>-2.204890593035207</v>
       </c>
       <c r="G28" t="n">
-        <v>1.627053448704393</v>
+        <v>1.623618938981715</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7522054805783827</v>
       </c>
       <c r="E29" t="n">
-        <v>5.923069483024878</v>
+        <v>5.880788181388499</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.156121971590387</v>
+        <v>-2.157203322726721</v>
       </c>
       <c r="G29" t="n">
-        <v>1.600255773164249</v>
+        <v>1.597243100566079</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7902879355583545</v>
       </c>
       <c r="E30" t="n">
-        <v>5.791174550755486</v>
+        <v>5.75000922867611</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.153002265691969</v>
+        <v>-2.155436486263061</v>
       </c>
       <c r="G30" t="n">
-        <v>1.534329556287691</v>
+        <v>1.531285403307095</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8222084881437438</v>
       </c>
       <c r="E31" t="n">
-        <v>5.593858661747475</v>
+        <v>5.554626235149056</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.096262811416883</v>
+        <v>-2.10225038015431</v>
       </c>
       <c r="G31" t="n">
-        <v>1.470739183787143</v>
+        <v>1.468352970799251</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8474390694976572</v>
       </c>
       <c r="E32" t="n">
-        <v>5.410628669855983</v>
+        <v>5.375443046418428</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.019393226599482</v>
+        <v>-2.026248079872746</v>
       </c>
       <c r="G32" t="n">
-        <v>1.427688186800448</v>
+        <v>1.426186572558727</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8654191264732427</v>
       </c>
       <c r="E33" t="n">
-        <v>5.145825137003083</v>
+        <v>5.114448639839075</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.981963838904512</v>
+        <v>-1.989264926598665</v>
       </c>
       <c r="G33" t="n">
-        <v>1.368106841001853</v>
+        <v>1.367433160817936</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8760132357320486</v>
       </c>
       <c r="E34" t="n">
-        <v>4.920705774236416</v>
+        <v>4.89453455830655</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.91203882645029</v>
+        <v>-1.920836019319239</v>
       </c>
       <c r="G34" t="n">
-        <v>1.272253798572005</v>
+        <v>1.271690299726579</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8792170961743297</v>
       </c>
       <c r="E35" t="n">
-        <v>4.629948240092389</v>
+        <v>4.608034745885641</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.875282331929676</v>
+        <v>-1.883962260374089</v>
       </c>
       <c r="G35" t="n">
-        <v>1.186457164308147</v>
+        <v>1.187118252339093</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8747228149833262</v>
       </c>
       <c r="E36" t="n">
-        <v>4.256822285330697</v>
+        <v>4.240211661543611</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.835996388681132</v>
+        <v>-1.846374683757428</v>
       </c>
       <c r="G36" t="n">
-        <v>1.137080184472944</v>
+        <v>1.137923858721961</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8627701835162971</v>
       </c>
       <c r="E37" t="n">
-        <v>3.945885826051596</v>
+        <v>3.931340315351656</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.795784922189263</v>
+        <v>-1.807125729958235</v>
       </c>
       <c r="G37" t="n">
-        <v>1.054359183572108</v>
+        <v>1.055391740115681</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8445566230202827</v>
       </c>
       <c r="E38" t="n">
-        <v>3.660549213761328</v>
+        <v>3.650052080241374</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.718579284289465</v>
+        <v>-1.729964951603393</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9775470504526343</v>
+        <v>0.9805250946301353</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8203520382210511</v>
       </c>
       <c r="E39" t="n">
-        <v>3.317332770342592</v>
+        <v>3.310534581757694</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.682387075623837</v>
+        <v>-1.691661196286541</v>
       </c>
       <c r="G39" t="n">
-        <v>0.894135055157547</v>
+        <v>0.8972390208647519</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7917556391276231</v>
       </c>
       <c r="E40" t="n">
-        <v>2.987600948736039</v>
+        <v>2.983966538584955</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.64500884355031</v>
+        <v>-1.652076976414511</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8332677357368494</v>
+        <v>0.8370957502398526</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.7595604291831893</v>
       </c>
       <c r="E41" t="n">
-        <v>2.667231392862982</v>
+        <v>2.66526859101872</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.624059436055358</v>
+        <v>-1.630809617057056</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7799572821175164</v>
+        <v>0.7834972511213216</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7249586275738205</v>
       </c>
       <c r="E42" t="n">
-        <v>2.333065559391724</v>
+        <v>2.332180960645553</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.572757430834805</v>
+        <v>-1.579033045071431</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7183706359583844</v>
+        <v>0.7234185152803957</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6896993199794804</v>
       </c>
       <c r="E43" t="n">
-        <v>2.076549237212473</v>
+        <v>2.077564479545712</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.520940721361586</v>
+        <v>-1.527364293395615</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6428979931111377</v>
+        <v>0.6479726307582111</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6544142962316373</v>
       </c>
       <c r="E44" t="n">
-        <v>1.823700379585852</v>
+        <v>1.82442442838165</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.502815891179809</v>
+        <v>-1.507685906341113</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5580268820906046</v>
+        <v>0.5618659147274569</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6207813989838926</v>
       </c>
       <c r="E45" t="n">
-        <v>1.598294545339108</v>
+        <v>1.599120905377791</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.425940797295483</v>
+        <v>-1.428511170520568</v>
       </c>
       <c r="G45" t="n">
-        <v>0.504267833021701</v>
+        <v>0.5072112487785332</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.5888315262007706</v>
       </c>
       <c r="E46" t="n">
-        <v>1.386078991328864</v>
+        <v>1.388471500393241</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.364010227958347</v>
+        <v>-1.368197905830568</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4419193616078594</v>
+        <v>0.4453160948716263</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5584313719015451</v>
       </c>
       <c r="E47" t="n">
-        <v>1.235250183049347</v>
+        <v>1.236603839493665</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.317982760813273</v>
+        <v>-1.322293212176954</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3779842789197467</v>
+        <v>0.381828033613963</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5293588917415395</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026042579579908</v>
+        <v>1.028120284820025</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.240208902010684</v>
+        <v>-1.243367171377574</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2930077086180865</v>
+        <v>0.2964878648952823</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5006628132375356</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8691380574921708</v>
+        <v>0.8715179744035774</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.169732982864007</v>
+        <v>-1.172388353121641</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2492043304914097</v>
+        <v>0.2519305316095025</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4730544021895675</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7712057358030846</v>
+        <v>0.772307549187995</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.097303705987795</v>
+        <v>-1.100171568826805</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2112940799548826</v>
+        <v>0.2139038036579991</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4463206276618383</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6363185931841008</v>
+        <v>0.6379477029746471</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.064517674700662</v>
+        <v>-1.066980227615937</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1698013618982752</v>
+        <v>0.1725763576091283</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4213773819939787</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4635699946213503</v>
+        <v>0.4644844997308261</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.028782718589773</v>
+        <v>-1.03112722007095</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1273201598334909</v>
+        <v>0.1300589531045541</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3981252078255841</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4040201292051814</v>
+        <v>0.4036266244248563</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.0284041669911</v>
+        <v>-1.028277458451835</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1000959251114742</v>
+        <v>0.1024207513536353</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3763314818780576</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2458233374188558</v>
+        <v>0.2458847241645865</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9683214961023705</v>
+        <v>-0.9680971983775852</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05381189284962749</v>
+        <v>0.05554173986393694</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3558842457249312</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1273327519864613</v>
+        <v>0.1271784981125738</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9449134707399474</v>
+        <v>-0.9426098937559239</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02681274286195679</v>
+        <v>0.02851425753208283</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.335592898851757</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03954026147679415</v>
+        <v>0.03852816718179781</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9293944292134833</v>
+        <v>-0.9268665545046744</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008383898709447888</v>
+        <v>-0.007330879917297728</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3159147233671958</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07269832000579399</v>
+        <v>-0.07446594347901467</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9300909326746588</v>
+        <v>-0.9272482541415897</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05031891613914082</v>
+        <v>-0.05024493724043968</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2962704780519341</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1281258293432764</v>
+        <v>-0.1279967597753298</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9111350203968346</v>
+        <v>-0.9085268707128393</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08045980829292768</v>
+        <v>-0.07977510997516188</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2764089477191504</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2085094118489812</v>
+        <v>-0.2079223027167361</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9209277803600069</v>
+        <v>-0.9164685841893619</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1064138095840547</v>
+        <v>-0.1062390934615903</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2564583407650359</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3011404371375267</v>
+        <v>-0.2988549613733981</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.917172957746144</v>
+        <v>-0.9127161226041811</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.125941090802911</v>
+        <v>-0.124914830335823</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2358585544341303</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3952305781515179</v>
+        <v>-0.392221053591591</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8985830049140223</v>
+        <v>-0.8942316290531865</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1478860653920852</v>
+        <v>-0.1457406773297524</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2150584182347392</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5028006189203282</v>
+        <v>-0.4987412236064938</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8883070210806108</v>
+        <v>-0.8844585443290306</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1764891408643613</v>
+        <v>-0.1747278134676259</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1940915303747356</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5669025476352988</v>
+        <v>-0.5636569202071767</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8977731720761131</v>
+        <v>-0.892776448375544</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1982294929677665</v>
+        <v>-0.1957708751002948</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1725440653134936</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6862745837756216</v>
+        <v>-0.6815635445455687</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9204587226618592</v>
+        <v>-0.9146608232285481</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2347955311747027</v>
+        <v>-0.2320236835020922</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1509467626805566</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8086388302655371</v>
+        <v>-0.8027944972681477</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9558773009293673</v>
+        <v>-0.9509285848119979</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2799950642619733</v>
+        <v>-0.277004427931502</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1286937560222873</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9049680134795786</v>
+        <v>-0.9003159999665743</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9846684716866388</v>
+        <v>-0.9801046032444275</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3072397612325669</v>
+        <v>-0.3030701845802414</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1061368091677866</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9484660318967231</v>
+        <v>-0.9422714796448441</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.023997700461019</v>
+        <v>-1.019807661560116</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3466201456283888</v>
+        <v>-0.3413818099927001</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.08356267250590597</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9945092392330107</v>
+        <v>-0.9886255557575888</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.034616820462874</v>
+        <v>-1.028386065771205</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3697582267115089</v>
+        <v>-0.3643325828003854</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0613617785217089</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.059620114204735</v>
+        <v>-1.050928380616913</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.083146978010816</v>
+        <v>-1.075875796679968</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3893768010394006</v>
+        <v>-0.3834207126843989</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.04004542000072199</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.087487335737803</v>
+        <v>-1.076717109900303</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.126674902791266</v>
+        <v>-1.117110375600682</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4023388485033118</v>
+        <v>-0.3956335270465709</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.01990616009091535</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.106561299449725</v>
+        <v>-1.093725960525078</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.13607100993587</v>
+        <v>-1.126274314924895</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4322861363051787</v>
+        <v>-0.4254517452804911</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.001608756292028401</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.132055687157432</v>
+        <v>-1.115456081504195</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.177533034619612</v>
+        <v>-1.166325231466391</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4102482945878478</v>
+        <v>-0.402570229314143</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.01485059166022146</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.10575697567874</v>
+        <v>-1.087543213416609</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.202470219558379</v>
+        <v>-1.192913562463402</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.417567483501896</v>
+        <v>-0.4089151003921061</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.02889750210158737</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.109249724108906</v>
+        <v>-1.089431249352609</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.223880814655872</v>
+        <v>-1.214036112061696</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4208949599243256</v>
+        <v>-0.4128926467116329</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.04082065464460489</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.067014069027045</v>
+        <v>-1.04526112477067</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.24192222182422</v>
+        <v>-1.232189274587657</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4276994445857085</v>
+        <v>-0.4190565055906464</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.05035710079418417</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9792798172248659</v>
+        <v>-0.957181375771365</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.257136690650712</v>
+        <v>-1.244929385355465</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4012574973669782</v>
+        <v>-0.3922509599548957</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.05682284568383551</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9187406807909595</v>
+        <v>-0.8957773158303038</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.267168701520322</v>
+        <v>-1.256034090256241</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3841841119582297</v>
+        <v>-0.3752169250241797</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.05973068149603783</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7705821959507291</v>
+        <v>-0.7492211824555574</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.253183541627566</v>
+        <v>-1.241712090271526</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3403413833535203</v>
+        <v>-0.3306060750882756</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.05881917588235384</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6575440127545201</v>
+        <v>-0.636384473706875</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.273421492479689</v>
+        <v>-1.263014078049649</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3252292257699124</v>
+        <v>-0.3162730569697115</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05375217985094635</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4999028497180137</v>
+        <v>-0.4809957320329498</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.268830078702855</v>
+        <v>-1.260114734828213</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3038398799305574</v>
+        <v>-0.2945374269236704</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.04469377096572683</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3553181752926964</v>
+        <v>-0.3370752936768214</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284098064179472</v>
+        <v>-1.276896139689961</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2797133148392604</v>
+        <v>-0.2703935476220391</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03223454818945565</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1937167801469974</v>
+        <v>-0.1770290294229675</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.295505767761099</v>
+        <v>-1.288340832720938</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2545667853573607</v>
+        <v>-0.2455995984233106</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01735748884100101</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001530847735625144</v>
+        <v>0.01696095718173579</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.27446270612843</v>
+        <v>-1.269576950775912</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1909024339581117</v>
+        <v>-0.1832778853345312</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.001030436812193201</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1658411297890826</v>
+        <v>0.1805377463246672</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.273558432143242</v>
+        <v>-1.269081134752703</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1675408421597669</v>
+        <v>-0.1598171303315445</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01481137699489066</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3371290386072661</v>
+        <v>0.3506482888401177</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.192313074168626</v>
+        <v>-1.190329023066226</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.122020209171751</v>
+        <v>-0.1152912774281906</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.02891392101847607</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5402215777904512</v>
+        <v>0.550517236862879</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.121127272398241</v>
+        <v>-1.119836576718775</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06895058047797706</v>
+        <v>-0.0635579909684009</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03946709027616149</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7290283194287114</v>
+        <v>0.7378554186609656</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037572041363116</v>
+        <v>-1.038969770342831</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02298135204039047</v>
+        <v>-0.01887788419115957</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.0447589534294751</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8875194527907202</v>
+        <v>0.8936455352108225</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.911836245915374</v>
+        <v>-0.9145230965554343</v>
       </c>
       <c r="G88" t="n">
-        <v>0.001792134909761059</v>
+        <v>0.005736626827740583</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.04455939822817082</v>
       </c>
       <c r="E89" t="n">
-        <v>1.027715761905851</v>
+        <v>1.032836046107442</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8048029456669273</v>
+        <v>-0.8101530366602283</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03433498024265278</v>
+        <v>0.03924906793935352</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0379233691169895</v>
       </c>
       <c r="E90" t="n">
-        <v>1.130200146893739</v>
+        <v>1.132057489456874</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6595288508664803</v>
+        <v>-0.6656502112292186</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05245194032882369</v>
+        <v>0.05674114243436807</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.02542806971977935</v>
       </c>
       <c r="E91" t="n">
-        <v>1.229426312300534</v>
+        <v>1.229972496935626</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.485262897870796</v>
+        <v>-0.4920296060732676</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02721883979525237</v>
+        <v>0.03091463669206639</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.008009736826491348</v>
       </c>
       <c r="E92" t="n">
-        <v>1.266847042890337</v>
+        <v>1.265590975631539</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3355610872821301</v>
+        <v>-0.3444007786673548</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05414715892246454</v>
+        <v>0.05738019419761615</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0130859960695416</v>
       </c>
       <c r="E93" t="n">
-        <v>1.296769146386263</v>
+        <v>1.294046093306413</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.227614855943329</v>
+        <v>-0.2367929614396333</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04185092154686356</v>
+        <v>0.04345956908883287</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.03579210252980905</v>
       </c>
       <c r="E94" t="n">
-        <v>1.247847058077116</v>
+        <v>1.243417768269776</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.100101992907639</v>
+        <v>-0.1104008000183094</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05880940355975717</v>
+        <v>0.06112006362982658</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05939696193504555</v>
       </c>
       <c r="E95" t="n">
-        <v>1.216930174496528</v>
+        <v>1.212470978325883</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01200256866931817</v>
+        <v>-0.02029764943857279</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01512879892454179</v>
+        <v>0.0174394589946112</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08314719854138643</v>
       </c>
       <c r="E96" t="n">
-        <v>1.12803587060195</v>
+        <v>1.123858423854018</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06496381832404287</v>
+        <v>0.05721334817075827</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02640641764834076</v>
+        <v>-0.0239855762397803</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1071900899875515</v>
       </c>
       <c r="E97" t="n">
-        <v>1.066054145643372</v>
+        <v>1.062992678452442</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1127809452100365</v>
+        <v>0.1049407559668377</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01326808004284392</v>
+        <v>-0.01099834446992833</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1321292312842053</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9650934111649033</v>
+        <v>0.9613236353693881</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1097745686883521</v>
+        <v>0.1032360932584691</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06577893194855616</v>
+        <v>-0.06348086403145717</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1577991817306829</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9051405968536814</v>
+        <v>0.9026001299919021</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1235582541335823</v>
+        <v>0.1177170691744354</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05804735002472719</v>
+        <v>-0.05515272886065523</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1841744034569652</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8528375154719808</v>
+        <v>0.8510824841517306</v>
       </c>
       <c r="F100" t="n">
-        <v>0.115777877616993</v>
+        <v>0.1104718591590883</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06578837606328397</v>
+        <v>-0.06318180039841004</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2085839201199136</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7722792168438116</v>
+        <v>0.7705320556191678</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1104765812164522</v>
+        <v>0.1055357351946894</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06433398239520213</v>
+        <v>-0.06231451586257335</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2306362527238631</v>
       </c>
       <c r="E102" t="n">
-        <v>0.748059784624358</v>
+        <v>0.7464401189485396</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1102688106924406</v>
+        <v>0.1064848687248337</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06392945948102786</v>
+        <v>-0.06237275457006148</v>
       </c>
     </row>
   </sheetData>
